--- a/e61 Projects/Fiscal sustainability/OECD comparison/Consolidated Fiscal Position.xlsx
+++ b/e61 Projects/Fiscal sustainability/OECD comparison/Consolidated Fiscal Position.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattNolan\Git\TVHENZ\e61 Projects\Fiscal sustainability\OECD comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C97306-5C05-4752-B684-AC07EF929A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5A2504-EE25-4AFA-A25E-0ED37559AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="150" windowWidth="28785" windowHeight="15255" firstSheet="6" activeTab="11" xr2:uid="{A30DED16-EC76-4E7F-9EBC-6B8E2D0FF958}"/>
+    <workbookView xWindow="-28215" yWindow="315" windowWidth="28785" windowHeight="15255" activeTab="1" xr2:uid="{A30DED16-EC76-4E7F-9EBC-6B8E2D0FF958}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="1" r:id="rId1"/>
-    <sheet name="Federal Budget" sheetId="2" r:id="rId2"/>
-    <sheet name="Expense Function" sheetId="3" r:id="rId3"/>
-    <sheet name="Expense Function (w sub)" sheetId="10" r:id="rId4"/>
-    <sheet name="State Budgets" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId6"/>
-    <sheet name="Federal Budget (GFS)" sheetId="6" r:id="rId7"/>
-    <sheet name="Operating Statement" sheetId="7" r:id="rId8"/>
-    <sheet name="Balance Sheet" sheetId="9" r:id="rId9"/>
-    <sheet name="Cash Balance" sheetId="8" r:id="rId10"/>
-    <sheet name="OECD" sheetId="13" r:id="rId11"/>
-    <sheet name="Country comparisons" sheetId="14" r:id="rId12"/>
+    <sheet name="Economic data (with PBO fore)" sheetId="15" r:id="rId2"/>
+    <sheet name="Federal Budget" sheetId="2" r:id="rId3"/>
+    <sheet name="Expense Function" sheetId="3" r:id="rId4"/>
+    <sheet name="Expense Function (w sub)" sheetId="10" r:id="rId5"/>
+    <sheet name="State Budgets" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId7"/>
+    <sheet name="Federal Budget (GFS)" sheetId="6" r:id="rId8"/>
+    <sheet name="Operating Statement" sheetId="7" r:id="rId9"/>
+    <sheet name="Balance Sheet" sheetId="9" r:id="rId10"/>
+    <sheet name="Cash Balance" sheetId="8" r:id="rId11"/>
+    <sheet name="OECD" sheetId="13" r:id="rId12"/>
+    <sheet name="Country comparisons" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1107,7 +1108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="360">
   <si>
     <t>This worksheet</t>
   </si>
@@ -1936,15 +1937,268 @@
   <si>
     <t>https://www.imf.org/external/pubs/ft/gfs/manual/pdf/ch6ann.pdf - account classification</t>
   </si>
+  <si>
+    <t>Economic Data</t>
+  </si>
+  <si>
+    <t>The Economic Projections are sourced from the April BYOB from the PBO - there is an update for expense and revenue estimates due during 2025</t>
+  </si>
+  <si>
+    <t>Economic Data itself is sourced from XXX</t>
+  </si>
+  <si>
+    <t>2029-30</t>
+  </si>
+  <si>
+    <t>2030-31</t>
+  </si>
+  <si>
+    <t>2031-32</t>
+  </si>
+  <si>
+    <t>2032-33</t>
+  </si>
+  <si>
+    <t>2033-34</t>
+  </si>
+  <si>
+    <t>2034-35</t>
+  </si>
+  <si>
+    <t>2035-36</t>
+  </si>
+  <si>
+    <t>Output per hour growth</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>LFP</t>
+  </si>
+  <si>
+    <t>Employment growth</t>
+  </si>
+  <si>
+    <t>RGDP growth</t>
+  </si>
+  <si>
+    <t>NGDP growth</t>
+  </si>
+  <si>
+    <t>CPI growth</t>
+  </si>
+  <si>
+    <t>Wage growth</t>
+  </si>
+  <si>
+    <t>Terms of trade</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>10-year bond rate</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY11</t>
+  </si>
+  <si>
+    <t>FY12</t>
+  </si>
+  <si>
+    <t>FY13</t>
+  </si>
+  <si>
+    <t>FY14</t>
+  </si>
+  <si>
+    <t>FY15</t>
+  </si>
+  <si>
+    <t>FY16</t>
+  </si>
+  <si>
+    <t>FY17</t>
+  </si>
+  <si>
+    <t>FY18</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY10</t>
+  </si>
+  <si>
+    <t>FY09</t>
+  </si>
+  <si>
+    <t>FY08</t>
+  </si>
+  <si>
+    <t>FY01</t>
+  </si>
+  <si>
+    <t>FY02</t>
+  </si>
+  <si>
+    <t>FY03</t>
+  </si>
+  <si>
+    <t>FY04</t>
+  </si>
+  <si>
+    <t>FY05</t>
+  </si>
+  <si>
+    <t>FY06</t>
+  </si>
+  <si>
+    <t>FY07</t>
+  </si>
+  <si>
+    <t>FY00</t>
+  </si>
+  <si>
+    <t>FY99</t>
+  </si>
+  <si>
+    <t>NGDP level</t>
+  </si>
+  <si>
+    <t>FY71</t>
+  </si>
+  <si>
+    <t>FY72</t>
+  </si>
+  <si>
+    <t>FY73</t>
+  </si>
+  <si>
+    <t>FY74</t>
+  </si>
+  <si>
+    <t>FY75</t>
+  </si>
+  <si>
+    <t>FY76</t>
+  </si>
+  <si>
+    <t>FY77</t>
+  </si>
+  <si>
+    <t>FY78</t>
+  </si>
+  <si>
+    <t>FY79</t>
+  </si>
+  <si>
+    <t>FY80</t>
+  </si>
+  <si>
+    <t>FY81</t>
+  </si>
+  <si>
+    <t>FY82</t>
+  </si>
+  <si>
+    <t>FY83</t>
+  </si>
+  <si>
+    <t>FY84</t>
+  </si>
+  <si>
+    <t>FY85</t>
+  </si>
+  <si>
+    <t>FY86</t>
+  </si>
+  <si>
+    <t>FY87</t>
+  </si>
+  <si>
+    <t>FY88</t>
+  </si>
+  <si>
+    <t>FY89</t>
+  </si>
+  <si>
+    <t>FY90</t>
+  </si>
+  <si>
+    <t>FY91</t>
+  </si>
+  <si>
+    <t>FY92</t>
+  </si>
+  <si>
+    <t>FY93</t>
+  </si>
+  <si>
+    <t>FY94</t>
+  </si>
+  <si>
+    <t>FY95</t>
+  </si>
+  <si>
+    <t>FY96</t>
+  </si>
+  <si>
+    <t>FY97</t>
+  </si>
+  <si>
+    <t>FY98</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>Historical Fiscal data series</t>
+  </si>
+  <si>
+    <t>Payments (cash)</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2041,8 +2295,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2109,8 +2376,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2306,11 +2579,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2544,6 +2826,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2878,10 +3167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEAC72E-6CCD-42F8-B2DD-CE560B6F044E}">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2993,108 +3282,153 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="119" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="121" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="121" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="119"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>14</v>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3105,6 +3439,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81997B91-23CC-4719-8EB3-8A5214BEB1DD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379A7B2B-087F-4913-85EC-034EB4FBFB0E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3118,7 +3466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02283921-D14F-435B-8C2A-BACFFCE84760}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -3135,11 +3483,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983A22E4-BAE0-479F-BD5C-80015410D29E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -3150,6 +3498,1314 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92945DEF-DF87-4928-BA1F-6C635BF4D05A}">
+  <dimension ref="A1:BH17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AY20" sqref="AY20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="27" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1" t="s">
+        <v>311</v>
+      </c>
+      <c r="N1" t="s">
+        <v>300</v>
+      </c>
+      <c r="O1" t="s">
+        <v>301</v>
+      </c>
+      <c r="P1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>303</v>
+      </c>
+      <c r="R1" t="s">
+        <v>304</v>
+      </c>
+      <c r="S1" t="s">
+        <v>305</v>
+      </c>
+      <c r="T1" t="s">
+        <v>306</v>
+      </c>
+      <c r="U1" t="s">
+        <v>307</v>
+      </c>
+      <c r="V1" t="s">
+        <v>308</v>
+      </c>
+      <c r="W1" t="s">
+        <v>309</v>
+      </c>
+      <c r="X1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB1" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE1" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF1" s="122" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG1" s="122" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH1" s="122" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI1" s="122" t="s">
+        <v>281</v>
+      </c>
+      <c r="AJ1" s="122" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK1" s="122" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL1" s="122" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM1" s="122" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB2" s="123">
+        <v>-9.8367749770208943E-3</v>
+      </c>
+      <c r="AC2" s="122">
+        <v>9.8437260769583187E-3</v>
+      </c>
+      <c r="AD2" s="122">
+        <v>1.3988690146678379E-2</v>
+      </c>
+      <c r="AE2" s="122">
+        <v>1.0826139027401212E-2</v>
+      </c>
+      <c r="AF2" s="122">
+        <v>1.2315270935960427E-2</v>
+      </c>
+      <c r="AG2" s="122">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AH2" s="122">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AI2" s="122">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AJ2" s="122">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AK2" s="122">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AL2" s="122">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM2" s="122">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB3" s="123">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AC3" s="122">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AD3" s="122">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AE3" s="122">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AF3" s="122">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AG3" s="122">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AH3" s="122">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AI3" s="122">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AJ3" s="122">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AK3" s="122">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AL3" s="122">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AM3" s="122">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB4" s="123">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="AC4" s="122">
+        <v>0.67</v>
+      </c>
+      <c r="AD4" s="122">
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="AE4" s="122">
+        <v>0.6687676978007363</v>
+      </c>
+      <c r="AF4" s="122">
+        <v>0.66924333354979182</v>
+      </c>
+      <c r="AG4" s="122">
+        <v>0.66999232730896008</v>
+      </c>
+      <c r="AH4" s="122">
+        <v>0.67060474512197354</v>
+      </c>
+      <c r="AI4" s="122">
+        <v>0.67138017282086848</v>
+      </c>
+      <c r="AJ4" s="122">
+        <v>0.67224492768981037</v>
+      </c>
+      <c r="AK4" s="122">
+        <v>0.67308043399308093</v>
+      </c>
+      <c r="AL4" s="122">
+        <v>0.67399622106756751</v>
+      </c>
+      <c r="AM4" s="122">
+        <v>0.67475243261831575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB5" s="123">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AC5" s="122">
+        <v>0.01</v>
+      </c>
+      <c r="AD5" s="122">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="AE5" s="122">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AF5" s="122">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AG5" s="122">
+        <v>1.4963297600000001E-2</v>
+      </c>
+      <c r="AH5" s="122">
+        <v>1.4610389600000001E-2</v>
+      </c>
+      <c r="AI5" s="122">
+        <v>1.42574816E-2</v>
+      </c>
+      <c r="AJ5" s="122">
+        <v>1.3904573700000001E-2</v>
+      </c>
+      <c r="AK5" s="122">
+        <v>1.35516657E-2</v>
+      </c>
+      <c r="AL5" s="122">
+        <v>1.31987578E-2</v>
+      </c>
+      <c r="AM5" s="122">
+        <v>1.28458498E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB6" s="123">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC6" s="122">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="AD6" s="122">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AE6" s="122">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AF6" s="122">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AG6" s="122">
+        <v>2.7142857100000001E-2</v>
+      </c>
+      <c r="AH6" s="122">
+        <v>2.6785714299999999E-2</v>
+      </c>
+      <c r="AI6" s="122">
+        <v>2.64285714E-2</v>
+      </c>
+      <c r="AJ6" s="122">
+        <v>2.6071428600000002E-2</v>
+      </c>
+      <c r="AK6" s="122">
+        <v>2.5714285700000002E-2</v>
+      </c>
+      <c r="AL6" s="122">
+        <v>2.5357142900000001E-2</v>
+      </c>
+      <c r="AM6" s="122">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB7" s="123">
+        <v>4.2780184500000006E-2</v>
+      </c>
+      <c r="AC7" s="122">
+        <v>3.30688414E-2</v>
+      </c>
+      <c r="AD7" s="122">
+        <v>3.9211859699999997E-2</v>
+      </c>
+      <c r="AE7" s="122">
+        <v>5.2178724699999998E-2</v>
+      </c>
+      <c r="AF7" s="122">
+        <v>5.43464798E-2</v>
+      </c>
+      <c r="AG7" s="122">
+        <v>5.2821428600000005E-2</v>
+      </c>
+      <c r="AH7" s="122">
+        <v>5.2455357100000002E-2</v>
+      </c>
+      <c r="AI7" s="122">
+        <v>5.2089285700000001E-2</v>
+      </c>
+      <c r="AJ7" s="122">
+        <v>5.1723214300000001E-2</v>
+      </c>
+      <c r="AK7" s="122">
+        <v>5.13571429E-2</v>
+      </c>
+      <c r="AL7" s="122">
+        <v>5.0991071400000004E-2</v>
+      </c>
+      <c r="AM7" s="122">
+        <v>5.0625000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB8" s="123">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AC8" s="122">
+        <v>0.03</v>
+      </c>
+      <c r="AD8" s="122">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AE8" s="122">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AF8" s="122">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG8" s="122">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AH8" s="122">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AI8" s="122">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AJ8" s="122">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AK8" s="122">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AL8" s="122">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AM8" s="122">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB9" s="123">
+        <v>0.03</v>
+      </c>
+      <c r="AC9" s="122">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AD9" s="122">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AE9" s="122">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AF9" s="122">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="AG9" s="122">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="AH9" s="122">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="AI9" s="122">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="AJ9" s="122">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="AK9" s="122">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="AL9" s="122">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="AM9" s="122">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB10" s="123" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC10" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD10" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE10" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="AF10" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG10" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH10" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="AI10" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ10" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK10" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL10" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM10" s="122" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB11" s="123"/>
+      <c r="AC11" s="122">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AD11" s="122">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AE11" s="122">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AF11" s="122">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AG11" s="122">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AH11" s="122">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AI11" s="122">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AJ11" s="122">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AK11" s="122">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AL11" s="122">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AM11" s="122">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AB12" s="124"/>
+      <c r="AC12" s="122"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="122"/>
+      <c r="AF12" s="122"/>
+      <c r="AG12" s="122"/>
+      <c r="AH12" s="122"/>
+      <c r="AI12" s="122"/>
+      <c r="AJ12" s="122"/>
+      <c r="AK12" s="122"/>
+      <c r="AL12" s="122"/>
+      <c r="AM12" s="122"/>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="122"/>
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="122"/>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14" t="s">
+        <v>329</v>
+      </c>
+      <c r="H14" t="s">
+        <v>330</v>
+      </c>
+      <c r="I14" t="s">
+        <v>331</v>
+      </c>
+      <c r="J14" t="s">
+        <v>332</v>
+      </c>
+      <c r="K14" t="s">
+        <v>333</v>
+      </c>
+      <c r="L14" t="s">
+        <v>334</v>
+      </c>
+      <c r="M14" t="s">
+        <v>335</v>
+      </c>
+      <c r="N14" t="s">
+        <v>336</v>
+      </c>
+      <c r="O14" t="s">
+        <v>337</v>
+      </c>
+      <c r="P14" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>339</v>
+      </c>
+      <c r="R14" t="s">
+        <v>340</v>
+      </c>
+      <c r="S14" t="s">
+        <v>341</v>
+      </c>
+      <c r="T14" t="s">
+        <v>342</v>
+      </c>
+      <c r="U14" t="s">
+        <v>343</v>
+      </c>
+      <c r="V14" t="s">
+        <v>344</v>
+      </c>
+      <c r="W14" t="s">
+        <v>345</v>
+      </c>
+      <c r="X14" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>315</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>317</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>318</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>319</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>307</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>308</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>309</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>310</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>298</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>297</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>352</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>353</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>354</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>355</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15">
+        <v>40373</v>
+      </c>
+      <c r="C15">
+        <v>44548</v>
+      </c>
+      <c r="D15">
+        <v>49822</v>
+      </c>
+      <c r="E15">
+        <v>60363</v>
+      </c>
+      <c r="F15">
+        <v>71256</v>
+      </c>
+      <c r="G15">
+        <v>83349</v>
+      </c>
+      <c r="H15">
+        <v>96205</v>
+      </c>
+      <c r="I15">
+        <v>105059</v>
+      </c>
+      <c r="J15">
+        <v>118753</v>
+      </c>
+      <c r="K15">
+        <v>134614</v>
+      </c>
+      <c r="L15">
+        <v>152360</v>
+      </c>
+      <c r="M15">
+        <v>175860</v>
+      </c>
+      <c r="N15">
+        <v>189415</v>
+      </c>
+      <c r="O15">
+        <v>213694</v>
+      </c>
+      <c r="P15">
+        <v>235504</v>
+      </c>
+      <c r="Q15">
+        <v>260876</v>
+      </c>
+      <c r="R15">
+        <v>286367</v>
+      </c>
+      <c r="S15">
+        <v>324582</v>
+      </c>
+      <c r="T15">
+        <v>368281</v>
+      </c>
+      <c r="U15">
+        <v>404704</v>
+      </c>
+      <c r="V15">
+        <v>415332</v>
+      </c>
+      <c r="W15">
+        <v>423281</v>
+      </c>
+      <c r="X15">
+        <v>444230</v>
+      </c>
+      <c r="Y15">
+        <v>466618</v>
+      </c>
+      <c r="Z15">
+        <v>495847</v>
+      </c>
+      <c r="AA15">
+        <v>528970</v>
+      </c>
+      <c r="AB15">
+        <v>556666</v>
+      </c>
+      <c r="AC15">
+        <v>589241</v>
+      </c>
+      <c r="AD15">
+        <v>621808</v>
+      </c>
+      <c r="AE15">
+        <v>662676</v>
+      </c>
+      <c r="AF15">
+        <v>707404</v>
+      </c>
+      <c r="AG15">
+        <v>756448</v>
+      </c>
+      <c r="AH15">
+        <v>803110</v>
+      </c>
+      <c r="AI15">
+        <v>864091</v>
+      </c>
+      <c r="AJ15">
+        <v>925444</v>
+      </c>
+      <c r="AK15">
+        <v>999587</v>
+      </c>
+      <c r="AL15">
+        <v>1089025</v>
+      </c>
+      <c r="AM15">
+        <v>1179633</v>
+      </c>
+      <c r="AN15">
+        <v>1261444</v>
+      </c>
+      <c r="AO15">
+        <v>1304323</v>
+      </c>
+      <c r="AP15">
+        <v>1418560</v>
+      </c>
+      <c r="AQ15">
+        <v>1500738</v>
+      </c>
+      <c r="AR15">
+        <v>1537270</v>
+      </c>
+      <c r="AS15">
+        <v>1599336</v>
+      </c>
+      <c r="AT15">
+        <v>1624167</v>
+      </c>
+      <c r="AU15">
+        <v>1657916</v>
+      </c>
+      <c r="AV15">
+        <v>1757656</v>
+      </c>
+      <c r="AW15">
+        <v>1842048</v>
+      </c>
+      <c r="AX15">
+        <v>1947322</v>
+      </c>
+      <c r="AY15">
+        <v>1981664</v>
+      </c>
+      <c r="AZ15">
+        <v>2085822</v>
+      </c>
+      <c r="BA15">
+        <v>2330329</v>
+      </c>
+      <c r="BB15">
+        <v>2567512</v>
+      </c>
+      <c r="BC15">
+        <v>2673672</v>
+      </c>
+      <c r="BD15">
+        <v>2787609</v>
+      </c>
+      <c r="BE15">
+        <v>2879792</v>
+      </c>
+      <c r="BF15">
+        <v>2992714</v>
+      </c>
+      <c r="BG15">
+        <v>3148870</v>
+      </c>
+      <c r="BH15">
+        <v>3320000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16">
+        <v>7389</v>
+      </c>
+      <c r="C16">
+        <v>8249</v>
+      </c>
+      <c r="D16">
+        <v>9388</v>
+      </c>
+      <c r="E16">
+        <v>11078</v>
+      </c>
+      <c r="F16">
+        <v>15463</v>
+      </c>
+      <c r="G16">
+        <v>20225</v>
+      </c>
+      <c r="H16">
+        <v>23157</v>
+      </c>
+      <c r="I16">
+        <v>26057</v>
+      </c>
+      <c r="J16">
+        <v>28272</v>
+      </c>
+      <c r="K16">
+        <v>31642</v>
+      </c>
+      <c r="L16">
+        <v>36176</v>
+      </c>
+      <c r="M16">
+        <v>41151</v>
+      </c>
+      <c r="N16">
+        <v>48810</v>
+      </c>
+      <c r="O16">
+        <v>56990</v>
+      </c>
+      <c r="P16">
+        <v>64853</v>
+      </c>
+      <c r="Q16">
+        <v>71328</v>
+      </c>
+      <c r="R16">
+        <v>77158</v>
+      </c>
+      <c r="S16">
+        <v>82039</v>
+      </c>
+      <c r="T16">
+        <v>85326</v>
+      </c>
+      <c r="U16">
+        <v>92684</v>
+      </c>
+      <c r="V16">
+        <v>100665</v>
+      </c>
+      <c r="W16">
+        <v>108472</v>
+      </c>
+      <c r="X16">
+        <v>115751</v>
+      </c>
+      <c r="Y16">
+        <v>122009</v>
+      </c>
+      <c r="Z16">
+        <v>127619</v>
+      </c>
+      <c r="AA16">
+        <v>135538</v>
+      </c>
+      <c r="AB16">
+        <v>139689</v>
+      </c>
+      <c r="AC16">
+        <v>140587</v>
+      </c>
+      <c r="AD16">
+        <v>148175</v>
+      </c>
+      <c r="AE16">
+        <v>153192</v>
+      </c>
+      <c r="AF16">
+        <v>177123</v>
+      </c>
+      <c r="AG16">
+        <v>188655</v>
+      </c>
+      <c r="AH16">
+        <v>197243</v>
+      </c>
+      <c r="AI16">
+        <v>209785</v>
+      </c>
+      <c r="AJ16">
+        <v>222407</v>
+      </c>
+      <c r="AK16">
+        <v>240136</v>
+      </c>
+      <c r="AL16">
+        <v>253321</v>
+      </c>
+      <c r="AM16">
+        <v>271843</v>
+      </c>
+      <c r="AN16">
+        <v>316046</v>
+      </c>
+      <c r="AO16">
+        <v>336900</v>
+      </c>
+      <c r="AP16">
+        <v>346102</v>
+      </c>
+      <c r="AQ16">
+        <v>371032</v>
+      </c>
+      <c r="AR16">
+        <v>367204</v>
+      </c>
+      <c r="AS16">
+        <v>406430</v>
+      </c>
+      <c r="AT16">
+        <v>412079</v>
+      </c>
+      <c r="AU16">
+        <v>423328</v>
+      </c>
+      <c r="AV16">
+        <v>439375</v>
+      </c>
+      <c r="AW16">
+        <v>452742</v>
+      </c>
+      <c r="AX16">
+        <v>478098</v>
+      </c>
+      <c r="AY16">
+        <v>549634</v>
+      </c>
+      <c r="AZ16">
+        <v>654084</v>
+      </c>
+      <c r="BA16">
+        <v>616320</v>
+      </c>
+      <c r="BB16">
+        <v>627413</v>
+      </c>
+      <c r="BC16">
+        <v>672806</v>
+      </c>
+      <c r="BD16">
+        <v>731527</v>
+      </c>
+      <c r="BE16">
+        <v>777475</v>
+      </c>
+      <c r="BF16">
+        <v>801676</v>
+      </c>
+      <c r="BG16">
+        <v>834627</v>
+      </c>
+      <c r="BH16">
+        <v>877694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B17">
+        <v>10.024999999999999</v>
+      </c>
+      <c r="C17">
+        <v>10.725</v>
+      </c>
+      <c r="D17">
+        <v>11.375</v>
+      </c>
+      <c r="E17">
+        <v>12.824999999999999</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>16.925000000000001</v>
+      </c>
+      <c r="H17">
+        <v>19.25</v>
+      </c>
+      <c r="I17">
+        <v>21.125</v>
+      </c>
+      <c r="J17">
+        <v>22.825000000000003</v>
+      </c>
+      <c r="K17">
+        <v>25.175000000000001</v>
+      </c>
+      <c r="L17">
+        <v>27.5</v>
+      </c>
+      <c r="M17">
+        <v>30.375</v>
+      </c>
+      <c r="N17">
+        <v>33.875</v>
+      </c>
+      <c r="O17">
+        <v>36.199999999999996</v>
+      </c>
+      <c r="P17">
+        <v>37.75</v>
+      </c>
+      <c r="Q17">
+        <v>40.924999999999997</v>
+      </c>
+      <c r="R17">
+        <v>44.724999999999994</v>
+      </c>
+      <c r="S17">
+        <v>48.025000000000006</v>
+      </c>
+      <c r="T17">
+        <v>51.525000000000006</v>
+      </c>
+      <c r="U17">
+        <v>55.675000000000004</v>
+      </c>
+      <c r="V17">
+        <v>58.6</v>
+      </c>
+      <c r="W17">
+        <v>59.7</v>
+      </c>
+      <c r="X17">
+        <v>60.325000000000003</v>
+      </c>
+      <c r="Y17">
+        <v>61.425000000000004</v>
+      </c>
+      <c r="Z17">
+        <v>63.399999999999991</v>
+      </c>
+      <c r="AA17">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="AB17">
+        <v>66.974999999999994</v>
+      </c>
+      <c r="AC17">
+        <v>66.949999999999989</v>
+      </c>
+      <c r="AD17">
+        <v>67.800000000000011</v>
+      </c>
+      <c r="AE17">
+        <v>69.424999999999997</v>
+      </c>
+      <c r="AF17">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="AG17">
+        <v>75.7</v>
+      </c>
+      <c r="AH17">
+        <v>77.974999999999994</v>
+      </c>
+      <c r="AI17">
+        <v>79.849999999999994</v>
+      </c>
+      <c r="AJ17">
+        <v>81.775000000000006</v>
+      </c>
+      <c r="AK17">
+        <v>84.4</v>
+      </c>
+      <c r="AL17">
+        <v>86.899999999999991</v>
+      </c>
+      <c r="AM17">
+        <v>89.824999999999989</v>
+      </c>
+      <c r="AN17">
+        <v>92.625</v>
+      </c>
+      <c r="AO17">
+        <v>94.775000000000006</v>
+      </c>
+      <c r="AP17">
+        <v>97.724999999999994</v>
+      </c>
+      <c r="AQ17">
+        <v>99.974999999999994</v>
+      </c>
+      <c r="AR17">
+        <v>102.25000000000001</v>
+      </c>
+      <c r="AS17">
+        <v>105.02500000000001</v>
+      </c>
+      <c r="AT17">
+        <v>106.825</v>
+      </c>
+      <c r="AU17">
+        <v>108.30000000000001</v>
+      </c>
+      <c r="AV17">
+        <v>110.14999999999999</v>
+      </c>
+      <c r="AW17">
+        <v>112.27500000000001</v>
+      </c>
+      <c r="AX17">
+        <v>114.125</v>
+      </c>
+      <c r="AY17">
+        <v>115.65</v>
+      </c>
+      <c r="AZ17">
+        <v>117.52500000000001</v>
+      </c>
+      <c r="BA17">
+        <v>122.75</v>
+      </c>
+      <c r="BB17">
+        <v>131.375</v>
+      </c>
+      <c r="BC17">
+        <v>136.89999999999998</v>
+      </c>
+      <c r="BD17" s="125">
+        <f>BC17*(1+AB8)</f>
+        <v>140.32249999999996</v>
+      </c>
+      <c r="BE17" s="125">
+        <f t="shared" ref="BE17:BH17" si="0">BD17*(1+AC8)</f>
+        <v>144.53217499999997</v>
+      </c>
+      <c r="BF17" s="125">
+        <f t="shared" si="0"/>
+        <v>148.14547937499995</v>
+      </c>
+      <c r="BG17" s="125">
+        <f t="shared" si="0"/>
+        <v>151.84911635937493</v>
+      </c>
+      <c r="BH17" s="125">
+        <f t="shared" si="0"/>
+        <v>155.64534426835928</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B568923E-75A8-4B73-A462-5A9F6FFC3229}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -3166,7 +4822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0FE909-431B-4AE4-B2F3-98B4CBC4A3F8}">
   <dimension ref="A1:BQ76"/>
   <sheetViews>
@@ -3174,7 +4830,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN5" sqref="AN5"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11545,15 +13201,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD1B4FD-28E2-4886-B4F5-D494C47FC4E9}">
   <dimension ref="A1:BQ185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BI15" sqref="BI15"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37840,7 +39496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AAC0FB-89C1-4C7A-8C42-FECBCBB341C0}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
@@ -37857,7 +39513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AF7F3F-5A66-4C3C-AA23-43C637DDDD72}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -37869,7 +39525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88D913E-FB61-4F1D-9103-109C012158B6}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -37886,7 +39542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038C4469-4335-41B8-8D0B-F7D1E9A3EB4D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -37898,21 +39554,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81997B91-23CC-4719-8EB3-8A5214BEB1DD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D2F9D5B77921534992B5D6BADCD72A09" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad570597847389586b195e216a56d599">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b390b33-b749-46ac-8af9-a77a191c4022" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f27e972004e67fbfea8a08f028bdb367" ns2:_="">
     <xsd:import namespace="3b390b33-b749-46ac-8af9-a77a191c4022"/>
@@ -38050,22 +39707,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5D2435-628A-4747-AA88-A57DB50D7BE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="3b390b33-b749-46ac-8af9-a77a191c4022"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF72423-3DD4-4DDF-9EC0-BD39200F0449}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6223ED3C-2A32-4381-8A13-298E555474EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38081,28 +39747,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF72423-3DD4-4DDF-9EC0-BD39200F0449}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5D2435-628A-4747-AA88-A57DB50D7BE5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="3b390b33-b749-46ac-8af9-a77a191c4022"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/e61 Projects/Fiscal sustainability/OECD comparison/Consolidated Fiscal Position.xlsx
+++ b/e61 Projects/Fiscal sustainability/OECD comparison/Consolidated Fiscal Position.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattNolan\Git\TVHENZ\e61 Projects\Fiscal sustainability\OECD comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5A2504-EE25-4AFA-A25E-0ED37559AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3A99FC-6FB4-4F5A-92C1-785A6D1346AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28215" yWindow="315" windowWidth="28785" windowHeight="15255" activeTab="1" xr2:uid="{A30DED16-EC76-4E7F-9EBC-6B8E2D0FF958}"/>
+    <workbookView minimized="1" xWindow="-28605" yWindow="180" windowWidth="28785" windowHeight="15255" activeTab="4" xr2:uid="{A30DED16-EC76-4E7F-9EBC-6B8E2D0FF958}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="1" r:id="rId1"/>
@@ -2196,7 +2196,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -2592,7 +2592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2828,11 +2828,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3326,12 +3324,12 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3501,11 +3499,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92945DEF-DF87-4928-BA1F-6C635BF4D05A}">
   <dimension ref="A1:BH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY20" sqref="AY20"/>
+      <selection pane="bottomRight" activeCell="BF17" sqref="BF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3593,40 +3591,40 @@
       <c r="AA1" t="s">
         <v>297</v>
       </c>
-      <c r="AB1" s="123" t="s">
+      <c r="AB1" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="122" t="s">
+      <c r="AC1" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" s="122" t="s">
+      <c r="AD1" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="AE1" s="122" t="s">
+      <c r="AE1" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="AF1" s="122" t="s">
+      <c r="AF1" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" s="122" t="s">
+      <c r="AG1" s="121" t="s">
         <v>279</v>
       </c>
-      <c r="AH1" s="122" t="s">
+      <c r="AH1" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="AI1" s="122" t="s">
+      <c r="AI1" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="AJ1" s="122" t="s">
+      <c r="AJ1" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="AK1" s="122" t="s">
+      <c r="AK1" s="121" t="s">
         <v>283</v>
       </c>
-      <c r="AL1" s="122" t="s">
+      <c r="AL1" s="121" t="s">
         <v>284</v>
       </c>
-      <c r="AM1" s="122" t="s">
+      <c r="AM1" s="121" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3634,40 +3632,40 @@
       <c r="A2" t="s">
         <v>286</v>
       </c>
-      <c r="AB2" s="123">
+      <c r="AB2" s="122">
         <v>-9.8367749770208943E-3</v>
       </c>
-      <c r="AC2" s="122">
+      <c r="AC2" s="121">
         <v>9.8437260769583187E-3</v>
       </c>
-      <c r="AD2" s="122">
+      <c r="AD2" s="121">
         <v>1.3988690146678379E-2</v>
       </c>
-      <c r="AE2" s="122">
+      <c r="AE2" s="121">
         <v>1.0826139027401212E-2</v>
       </c>
-      <c r="AF2" s="122">
+      <c r="AF2" s="121">
         <v>1.2315270935960427E-2</v>
       </c>
-      <c r="AG2" s="122">
+      <c r="AG2" s="121">
         <v>1.2E-2</v>
       </c>
-      <c r="AH2" s="122">
+      <c r="AH2" s="121">
         <v>1.2E-2</v>
       </c>
-      <c r="AI2" s="122">
+      <c r="AI2" s="121">
         <v>1.2E-2</v>
       </c>
-      <c r="AJ2" s="122">
+      <c r="AJ2" s="121">
         <v>1.2E-2</v>
       </c>
-      <c r="AK2" s="122">
+      <c r="AK2" s="121">
         <v>1.2E-2</v>
       </c>
-      <c r="AL2" s="122">
+      <c r="AL2" s="121">
         <v>1.2E-2</v>
       </c>
-      <c r="AM2" s="122">
+      <c r="AM2" s="121">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -3675,40 +3673,40 @@
       <c r="A3" t="s">
         <v>287</v>
       </c>
-      <c r="AB3" s="123">
+      <c r="AB3" s="122">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AC3" s="122">
+      <c r="AC3" s="121">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AD3" s="122">
+      <c r="AD3" s="121">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AE3" s="122">
+      <c r="AE3" s="121">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AF3" s="122">
+      <c r="AF3" s="121">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AG3" s="122">
+      <c r="AG3" s="121">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AH3" s="122">
+      <c r="AH3" s="121">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AI3" s="122">
+      <c r="AI3" s="121">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AJ3" s="122">
+      <c r="AJ3" s="121">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AK3" s="122">
+      <c r="AK3" s="121">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AL3" s="122">
+      <c r="AL3" s="121">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AM3" s="122">
+      <c r="AM3" s="121">
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
@@ -3716,40 +3714,40 @@
       <c r="A4" t="s">
         <v>288</v>
       </c>
-      <c r="AB4" s="123">
+      <c r="AB4" s="122">
         <v>0.67249999999999999</v>
       </c>
-      <c r="AC4" s="122">
+      <c r="AC4" s="121">
         <v>0.67</v>
       </c>
-      <c r="AD4" s="122">
+      <c r="AD4" s="121">
         <v>0.66749999999999998</v>
       </c>
-      <c r="AE4" s="122">
+      <c r="AE4" s="121">
         <v>0.6687676978007363</v>
       </c>
-      <c r="AF4" s="122">
+      <c r="AF4" s="121">
         <v>0.66924333354979182</v>
       </c>
-      <c r="AG4" s="122">
+      <c r="AG4" s="121">
         <v>0.66999232730896008</v>
       </c>
-      <c r="AH4" s="122">
+      <c r="AH4" s="121">
         <v>0.67060474512197354</v>
       </c>
-      <c r="AI4" s="122">
+      <c r="AI4" s="121">
         <v>0.67138017282086848</v>
       </c>
-      <c r="AJ4" s="122">
+      <c r="AJ4" s="121">
         <v>0.67224492768981037</v>
       </c>
-      <c r="AK4" s="122">
+      <c r="AK4" s="121">
         <v>0.67308043399308093</v>
       </c>
-      <c r="AL4" s="122">
+      <c r="AL4" s="121">
         <v>0.67399622106756751</v>
       </c>
-      <c r="AM4" s="122">
+      <c r="AM4" s="121">
         <v>0.67475243261831575</v>
       </c>
     </row>
@@ -3757,40 +3755,40 @@
       <c r="A5" t="s">
         <v>289</v>
       </c>
-      <c r="AB5" s="123">
+      <c r="AB5" s="122">
         <v>2.75E-2</v>
       </c>
-      <c r="AC5" s="122">
+      <c r="AC5" s="121">
         <v>0.01</v>
       </c>
-      <c r="AD5" s="122">
+      <c r="AD5" s="121">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AE5" s="122">
+      <c r="AE5" s="121">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AF5" s="122">
+      <c r="AF5" s="121">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AG5" s="122">
+      <c r="AG5" s="121">
         <v>1.4963297600000001E-2</v>
       </c>
-      <c r="AH5" s="122">
+      <c r="AH5" s="121">
         <v>1.4610389600000001E-2</v>
       </c>
-      <c r="AI5" s="122">
+      <c r="AI5" s="121">
         <v>1.42574816E-2</v>
       </c>
-      <c r="AJ5" s="122">
+      <c r="AJ5" s="121">
         <v>1.3904573700000001E-2</v>
       </c>
-      <c r="AK5" s="122">
+      <c r="AK5" s="121">
         <v>1.35516657E-2</v>
       </c>
-      <c r="AL5" s="122">
+      <c r="AL5" s="121">
         <v>1.31987578E-2</v>
       </c>
-      <c r="AM5" s="122">
+      <c r="AM5" s="121">
         <v>1.28458498E-2</v>
       </c>
     </row>
@@ -3798,40 +3796,40 @@
       <c r="A6" t="s">
         <v>290</v>
       </c>
-      <c r="AB6" s="123">
+      <c r="AB6" s="122">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AC6" s="122">
+      <c r="AC6" s="121">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="AD6" s="122">
+      <c r="AD6" s="121">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE6" s="122">
+      <c r="AE6" s="121">
         <v>2.75E-2</v>
       </c>
-      <c r="AF6" s="122">
+      <c r="AF6" s="121">
         <v>2.75E-2</v>
       </c>
-      <c r="AG6" s="122">
+      <c r="AG6" s="121">
         <v>2.7142857100000001E-2</v>
       </c>
-      <c r="AH6" s="122">
+      <c r="AH6" s="121">
         <v>2.6785714299999999E-2</v>
       </c>
-      <c r="AI6" s="122">
+      <c r="AI6" s="121">
         <v>2.64285714E-2</v>
       </c>
-      <c r="AJ6" s="122">
+      <c r="AJ6" s="121">
         <v>2.6071428600000002E-2</v>
       </c>
-      <c r="AK6" s="122">
+      <c r="AK6" s="121">
         <v>2.5714285700000002E-2</v>
       </c>
-      <c r="AL6" s="122">
+      <c r="AL6" s="121">
         <v>2.5357142900000001E-2</v>
       </c>
-      <c r="AM6" s="122">
+      <c r="AM6" s="121">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -3839,40 +3837,40 @@
       <c r="A7" t="s">
         <v>291</v>
       </c>
-      <c r="AB7" s="123">
+      <c r="AB7" s="122">
         <v>4.2780184500000006E-2</v>
       </c>
-      <c r="AC7" s="122">
+      <c r="AC7" s="121">
         <v>3.30688414E-2</v>
       </c>
-      <c r="AD7" s="122">
+      <c r="AD7" s="121">
         <v>3.9211859699999997E-2</v>
       </c>
-      <c r="AE7" s="122">
+      <c r="AE7" s="121">
         <v>5.2178724699999998E-2</v>
       </c>
-      <c r="AF7" s="122">
+      <c r="AF7" s="121">
         <v>5.43464798E-2</v>
       </c>
-      <c r="AG7" s="122">
+      <c r="AG7" s="121">
         <v>5.2821428600000005E-2</v>
       </c>
-      <c r="AH7" s="122">
+      <c r="AH7" s="121">
         <v>5.2455357100000002E-2</v>
       </c>
-      <c r="AI7" s="122">
+      <c r="AI7" s="121">
         <v>5.2089285700000001E-2</v>
       </c>
-      <c r="AJ7" s="122">
+      <c r="AJ7" s="121">
         <v>5.1723214300000001E-2</v>
       </c>
-      <c r="AK7" s="122">
+      <c r="AK7" s="121">
         <v>5.13571429E-2</v>
       </c>
-      <c r="AL7" s="122">
+      <c r="AL7" s="121">
         <v>5.0991071400000004E-2</v>
       </c>
-      <c r="AM7" s="122">
+      <c r="AM7" s="121">
         <v>5.0625000000000003E-2</v>
       </c>
     </row>
@@ -3880,40 +3878,40 @@
       <c r="A8" t="s">
         <v>292</v>
       </c>
-      <c r="AB8" s="123">
+      <c r="AB8" s="122">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AC8" s="122">
+      <c r="AC8" s="121">
         <v>0.03</v>
       </c>
-      <c r="AD8" s="122">
+      <c r="AD8" s="121">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE8" s="122">
+      <c r="AE8" s="121">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AF8" s="122">
+      <c r="AF8" s="121">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AG8" s="122">
+      <c r="AG8" s="121">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AH8" s="122">
+      <c r="AH8" s="121">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI8" s="122">
+      <c r="AI8" s="121">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AJ8" s="122">
+      <c r="AJ8" s="121">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AK8" s="122">
+      <c r="AK8" s="121">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AL8" s="122">
+      <c r="AL8" s="121">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AM8" s="122">
+      <c r="AM8" s="121">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -3921,40 +3919,40 @@
       <c r="A9" t="s">
         <v>293</v>
       </c>
-      <c r="AB9" s="123">
+      <c r="AB9" s="122">
         <v>0.03</v>
       </c>
-      <c r="AC9" s="122">
+      <c r="AC9" s="121">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="AD9" s="122">
+      <c r="AD9" s="121">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="AE9" s="122">
+      <c r="AE9" s="121">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AF9" s="122">
+      <c r="AF9" s="121">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="AG9" s="122">
+      <c r="AG9" s="121">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="AH9" s="122">
+      <c r="AH9" s="121">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="AI9" s="122">
+      <c r="AI9" s="121">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="AJ9" s="122">
+      <c r="AJ9" s="121">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="AK9" s="122">
+      <c r="AK9" s="121">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="AL9" s="122">
+      <c r="AL9" s="121">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="AM9" s="122">
+      <c r="AM9" s="121">
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
@@ -3962,40 +3960,40 @@
       <c r="A10" t="s">
         <v>294</v>
       </c>
-      <c r="AB10" s="123" t="s">
+      <c r="AB10" s="122" t="s">
         <v>295</v>
       </c>
-      <c r="AC10" s="122" t="s">
+      <c r="AC10" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="AD10" s="122" t="s">
+      <c r="AD10" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="AE10" s="122" t="s">
+      <c r="AE10" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="AF10" s="122" t="s">
+      <c r="AF10" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="AG10" s="122" t="s">
+      <c r="AG10" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="AH10" s="122" t="s">
+      <c r="AH10" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="AI10" s="122" t="s">
+      <c r="AI10" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="AJ10" s="122" t="s">
+      <c r="AJ10" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="AK10" s="122" t="s">
+      <c r="AK10" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="AL10" s="122" t="s">
+      <c r="AL10" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="AM10" s="122" t="s">
+      <c r="AM10" s="121" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4003,71 +4001,71 @@
       <c r="A11" t="s">
         <v>296</v>
       </c>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="122">
+      <c r="AB11" s="122"/>
+      <c r="AC11" s="121">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AD11" s="122">
+      <c r="AD11" s="121">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AE11" s="122">
+      <c r="AE11" s="121">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AF11" s="122">
+      <c r="AF11" s="121">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AG11" s="122">
+      <c r="AG11" s="121">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="AH11" s="122">
+      <c r="AH11" s="121">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="AI11" s="122">
+      <c r="AI11" s="121">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="AJ11" s="122">
+      <c r="AJ11" s="121">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="AK11" s="122">
+      <c r="AK11" s="121">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="AL11" s="122">
+      <c r="AL11" s="121">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="AM11" s="122">
+      <c r="AM11" s="121">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="122"/>
-      <c r="AD12" s="122"/>
-      <c r="AE12" s="122"/>
-      <c r="AF12" s="122"/>
-      <c r="AG12" s="122"/>
-      <c r="AH12" s="122"/>
-      <c r="AI12" s="122"/>
-      <c r="AJ12" s="122"/>
-      <c r="AK12" s="122"/>
-      <c r="AL12" s="122"/>
-      <c r="AM12" s="122"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="121"/>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="121"/>
+      <c r="AM12" s="121"/>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AB13" s="124"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="122"/>
-      <c r="AI13" s="122"/>
-      <c r="AJ13" s="122"/>
-      <c r="AK13" s="122"/>
-      <c r="AL13" s="122"/>
-      <c r="AM13" s="122"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="121"/>
+      <c r="AJ13" s="121"/>
+      <c r="AK13" s="121"/>
+      <c r="AL13" s="121"/>
+      <c r="AM13" s="121"/>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -4778,23 +4776,23 @@
       <c r="BC17">
         <v>136.89999999999998</v>
       </c>
-      <c r="BD17" s="125">
+      <c r="BD17" s="123">
         <f>BC17*(1+AB8)</f>
         <v>140.32249999999996</v>
       </c>
-      <c r="BE17" s="125">
+      <c r="BE17" s="123">
         <f t="shared" ref="BE17:BH17" si="0">BD17*(1+AC8)</f>
         <v>144.53217499999997</v>
       </c>
-      <c r="BF17" s="125">
+      <c r="BF17" s="123">
         <f t="shared" si="0"/>
         <v>148.14547937499995</v>
       </c>
-      <c r="BG17" s="125">
+      <c r="BG17" s="123">
         <f t="shared" si="0"/>
         <v>151.84911635937493</v>
       </c>
-      <c r="BH17" s="125">
+      <c r="BH17" s="123">
         <f t="shared" si="0"/>
         <v>155.64534426835928</v>
       </c>
@@ -13205,16 +13203,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD1B4FD-28E2-4886-B4F5-D494C47FC4E9}">
   <dimension ref="A1:BQ185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AH127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="AN149" sqref="AN149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="97.85546875" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
@@ -39555,21 +39553,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D2F9D5B77921534992B5D6BADCD72A09" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad570597847389586b195e216a56d599">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b390b33-b749-46ac-8af9-a77a191c4022" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f27e972004e67fbfea8a08f028bdb367" ns2:_="">
     <xsd:import namespace="3b390b33-b749-46ac-8af9-a77a191c4022"/>
@@ -39707,31 +39690,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5D2435-628A-4747-AA88-A57DB50D7BE5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="3b390b33-b749-46ac-8af9-a77a191c4022"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF72423-3DD4-4DDF-9EC0-BD39200F0449}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6223ED3C-2A32-4381-8A13-298E555474EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39747,4 +39721,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF72423-3DD4-4DDF-9EC0-BD39200F0449}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5D2435-628A-4747-AA88-A57DB50D7BE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="3b390b33-b749-46ac-8af9-a77a191c4022"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>